--- a/biology/Botanique/Greffe_en_incrustation/Greffe_en_incrustation.xlsx
+++ b/biology/Botanique/Greffe_en_incrustation/Greffe_en_incrustation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La greffe en incrustation est une technique de greffage à rameau détaché, également appelée greffe en V.
 </t>
@@ -511,10 +523,12 @@
           <t>Principe et époque de réalisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une technique de greffage dite « à rameau détaché » : un rameau, ou greffon, est mis en contact avec un porte-greffe, tous deux entaillés en forme de V. 
-Elle se pratique en mars-avril, avant la floraison, ou en septembre pour les végétaux ligneux[2].
+Elle se pratique en mars-avril, avant la floraison, ou en septembre pour les végétaux ligneux.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Applications pratiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est fréquemment utilisée pour les arbres fruitiers à noyau (abricotiers, cerisiers, pruniers…), pour certaines plantes d'ornement comme les Hibiscus[3], mais aussi pour quelques cultures légumières, comme le melon[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est fréquemment utilisée pour les arbres fruitiers à noyau (abricotiers, cerisiers, pruniers…), pour certaines plantes d'ornement comme les Hibiscus, mais aussi pour quelques cultures légumières, comme le melon.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Avantages et inconvénients</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle permet en outre d'insérer plusieurs greffons sur un même porte-greffe, si son diamètre est suffisant, alors que la greffe en fente limite à deux le nombre de ces greffons. Elle ne provoque, contrairement à la greffe en fente, aucun vide au niveau du porte-greffe ce qui est un avantage pour les arbres fruitiers à noyau, chez lesquels de grosses plaies ont du mal à cicatriser ; elle est moins traumatisante pour le porte-greffe. En augmentant les surfaces de contact entre greffon et porte-greffe au niveau du cambium, elle améliore les chances de reprise[5].
-Elle demande par contre une plus grande technicité que d'autres types de greffe, en fente notamment, car les ajustements des surfaces taillées doivent être parfaits et la greffe solidement ligaturée[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle permet en outre d'insérer plusieurs greffons sur un même porte-greffe, si son diamètre est suffisant, alors que la greffe en fente limite à deux le nombre de ces greffons. Elle ne provoque, contrairement à la greffe en fente, aucun vide au niveau du porte-greffe ce qui est un avantage pour les arbres fruitiers à noyau, chez lesquels de grosses plaies ont du mal à cicatriser ; elle est moins traumatisante pour le porte-greffe. En augmentant les surfaces de contact entre greffon et porte-greffe au niveau du cambium, elle améliore les chances de reprise.
+Elle demande par contre une plus grande technicité que d'autres types de greffe, en fente notamment, car les ajustements des surfaces taillées doivent être parfaits et la greffe solidement ligaturée.
 </t>
         </is>
       </c>
